--- a/Prácticas/individuales/DPPI_Registro de Riesgos.xlsx
+++ b/Prácticas/individuales/DPPI_Registro de Riesgos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237E0752-2F87-4FCD-8B8E-016413AA7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16DE6BE-3F33-41C3-8D32-062FCE8EC14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="iquz+tTTGof0tBGN4SkHYWOP1VM2lXMt1Z4aPCuem1B1EGkbpeadasGMau4vw/PKjXV4FWQJqv19aLmCAwoA2A==" workbookSaltValue="hI9XeU19/0p3oUpME/iDbA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1270,7 +1270,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,18 +1475,18 @@
         <v>0.3</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="15">
         <f>IF(I4&lt;&gt;"",HLOOKUP(I4,Matrix!$D$8:$H$9,2,FALSE),"")</f>
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" s="15">
         <f>IF(K4&lt;&gt;"",HLOOKUP(K4,Matrix!$D$8:$H$9,2,FALSE),"")</f>
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>23</v>
@@ -1549,18 +1549,18 @@
         <v>0.15</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L5" s="15">
         <f>IF(K5&lt;&gt;"",HLOOKUP(K5,Matrix!$D$8:$H$9,2,FALSE),"")</f>
-        <v>0.9</v>
+        <v>0.15</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N5" s="15">
         <f>IF(M5&lt;&gt;"",HLOOKUP(M5,Matrix!$D$8:$H$9,2,FALSE),"")</f>
-        <v>0.15</v>
+        <v>0.9</v>
       </c>
       <c r="O5" s="7" t="e">
         <f>HLOOKUP(N5,Matrix!$D$8:$H$9,2,FALSE)</f>
@@ -1616,18 +1616,18 @@
         <v>0.05</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L6" s="15">
         <f>IF(K6&lt;&gt;"",HLOOKUP(K6,Matrix!$D$8:$H$9,2,FALSE),"")</f>
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N6" s="15">
         <f>IF(M6&lt;&gt;"",HLOOKUP(M6,Matrix!$D$8:$H$9,2,FALSE),"")</f>
-        <v>0.9</v>
+        <v>0.15</v>
       </c>
       <c r="O6" s="7" t="e">
         <f>HLOOKUP(N6,Matrix!$D$8:$H$9,2,FALSE)</f>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>9.0000000000000011E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Q6" s="18" t="str">
         <f t="shared" si="1"/>
